--- a/config_debug/level_gun_config.xlsx
+++ b/config_debug/level_gun_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id|行号</t>
   </si>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>head_img|头像图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>head_frame_img|头像框图片</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -113,13 +109,41 @@
   </si>
   <si>
     <t>3dby_icon_wang_dj5</t>
+  </si>
+  <si>
+    <t>url|头像图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head018.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head019.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head023.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +187,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,14 +234,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,11 +275,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,7 +563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,11 +573,11 @@
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -569,18 +611,20 @@
         <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -591,18 +635,20 @@
         <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -613,18 +659,20 @@
         <v>60</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -635,18 +683,20 @@
         <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -657,19 +707,23 @@
         <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -828,7 +882,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/config_debug/level_gun_config.xlsx
+++ b/config_debug/level_gun_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id|行号</t>
   </si>
@@ -115,27 +115,69 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/girl/new_girl_head018.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head019.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head023.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>dt_tx_mx5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_name|头像框名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像框（永久）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head013.jpg",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head017.jpg",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head021.jpg",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +237,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -275,11 +326,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -559,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,11 +624,12 @@
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,8 +654,11 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -622,12 +677,12 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>28</v>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -646,12 +701,12 @@
       <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>29</v>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -670,12 +725,12 @@
       <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>30</v>
+      <c r="G4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -694,12 +749,12 @@
       <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -718,14 +773,17 @@
       <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
@@ -735,7 +793,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -745,7 +803,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -755,7 +813,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -765,7 +823,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -775,7 +833,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -785,7 +843,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -795,7 +853,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -805,7 +863,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
@@ -815,7 +873,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
@@ -883,13 +941,10 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId1" display="http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg"/>
+    <hyperlink ref="G3:G6" r:id="rId2" display="http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/config_debug/level_gun_config.xlsx
+++ b/config_debug/level_gun_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>id|行号</t>
   </si>
@@ -145,6 +145,7 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,6 +179,30 @@
   </si>
   <si>
     <t>"http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head025.jpg",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_name|枪名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光 I（永久）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光 II（永久）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光 III（永久）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光 V（永久）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光 IV（永久）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -234,6 +259,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -610,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,14 +648,14 @@
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,22 +669,25 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -672,17 +701,20 @@
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -696,17 +728,20 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -720,17 +755,20 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -744,17 +782,20 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -768,181 +809,200 @@
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg"/>
-    <hyperlink ref="G3:G6" r:id="rId2" display="http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg"/>
+    <hyperlink ref="H2" r:id="rId1" display="http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg"/>
+    <hyperlink ref="H3:H6" r:id="rId2" display="http://jydown.jyhd919.cn/head_images3/jy/boy/new_boy_head010.jpg"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/config_debug/level_gun_config.xlsx
+++ b/config_debug/level_gun_config.xlsx
@@ -115,15 +115,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>dt_tx_mx5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>head_frame_name|头像框名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像框（永久）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -203,6 +195,14 @@
   </si>
   <si>
     <t>圣光 IV（永久）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dt_tx_mx5",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"头像框（永久）",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -684,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -737,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -764,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
@@ -791,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -809,7 +809,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>22</v>
@@ -818,13 +818,13 @@
         <v>26</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
